--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1504516666666667</v>
+        <v>0.009159</v>
       </c>
       <c r="N2">
-        <v>0.451355</v>
+        <v>0.027477</v>
       </c>
       <c r="O2">
-        <v>0.3096707310714277</v>
+        <v>0.01850291816413234</v>
       </c>
       <c r="P2">
-        <v>0.3096707310714276</v>
+        <v>0.01850291816413234</v>
       </c>
       <c r="Q2">
-        <v>0.1400048044388889</v>
+        <v>0.015064048487</v>
       </c>
       <c r="R2">
-        <v>1.26004323995</v>
+        <v>0.135576436383</v>
       </c>
       <c r="S2">
-        <v>0.005477385093825443</v>
+        <v>0.0005706967099835682</v>
       </c>
       <c r="T2">
-        <v>0.005477385093825443</v>
+        <v>0.0005706967099835681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.644726333333334</v>
+      </c>
+      <c r="H3">
+        <v>4.934179</v>
+      </c>
+      <c r="I3">
+        <v>0.03084360558270512</v>
+      </c>
+      <c r="J3">
+        <v>0.03084360558270512</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.9305633333333333</v>
-      </c>
-      <c r="H3">
-        <v>2.79169</v>
-      </c>
-      <c r="I3">
-        <v>0.01768777137856805</v>
-      </c>
-      <c r="J3">
-        <v>0.01768777137856806</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.3353923333333333</v>
+        <v>0.1504516666666667</v>
       </c>
       <c r="N3">
-        <v>1.006177</v>
+        <v>0.451355</v>
       </c>
       <c r="O3">
-        <v>0.6903292689285724</v>
+        <v>0.3039409188765859</v>
       </c>
       <c r="P3">
-        <v>0.6903292689285724</v>
+        <v>0.3039409188765859</v>
       </c>
       <c r="Q3">
-        <v>0.3121038076811111</v>
+        <v>0.2474518180605556</v>
       </c>
       <c r="R3">
-        <v>2.80893426913</v>
+        <v>2.227066362545</v>
       </c>
       <c r="S3">
-        <v>0.01221038628474261</v>
+        <v>0.009374633822274389</v>
       </c>
       <c r="T3">
-        <v>0.01221038628474261</v>
+        <v>0.009374633822274388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.154177</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H4">
-        <v>132.462531</v>
+        <v>4.934179</v>
       </c>
       <c r="I4">
-        <v>0.8392647337471152</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J4">
-        <v>0.8392647337471153</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1504516666666667</v>
+        <v>0.3353923333333333</v>
       </c>
       <c r="N4">
-        <v>0.451355</v>
+        <v>1.006177</v>
       </c>
       <c r="O4">
-        <v>0.3096707310714277</v>
+        <v>0.6775561629592817</v>
       </c>
       <c r="P4">
-        <v>0.3096707310714276</v>
+        <v>0.6775561629592817</v>
       </c>
       <c r="Q4">
-        <v>6.643069519945001</v>
+        <v>0.5516286026314445</v>
       </c>
       <c r="R4">
-        <v>59.78762567950501</v>
+        <v>4.964657423683001</v>
       </c>
       <c r="S4">
-        <v>0.2598957236619363</v>
+        <v>0.02089827505044716</v>
       </c>
       <c r="T4">
-        <v>0.2598957236619363</v>
+        <v>0.02089827505044716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J5">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3353923333333333</v>
+        <v>0.009159</v>
       </c>
       <c r="N5">
-        <v>1.006177</v>
+        <v>0.027477</v>
       </c>
       <c r="O5">
-        <v>0.6903292689285724</v>
+        <v>0.01850291816413234</v>
       </c>
       <c r="P5">
-        <v>0.6903292689285724</v>
+        <v>0.01850291816413234</v>
       </c>
       <c r="Q5">
-        <v>14.808972450443</v>
+        <v>0.4044081071430001</v>
       </c>
       <c r="R5">
-        <v>133.280752053987</v>
+        <v>3.639672964287</v>
       </c>
       <c r="S5">
-        <v>0.5793690100851789</v>
+        <v>0.01532087316609236</v>
       </c>
       <c r="T5">
-        <v>0.579369010085179</v>
+        <v>0.01532087316609235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.525807</v>
+        <v>44.154177</v>
       </c>
       <c r="H6">
-        <v>22.577421</v>
+        <v>132.462531</v>
       </c>
       <c r="I6">
-        <v>0.1430474948743168</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J6">
-        <v>0.1430474948743168</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.451355</v>
       </c>
       <c r="O6">
-        <v>0.3096707310714277</v>
+        <v>0.3039409188765859</v>
       </c>
       <c r="P6">
-        <v>0.3096707310714276</v>
+        <v>0.3039409188765859</v>
       </c>
       <c r="Q6">
-        <v>1.132270206161667</v>
+        <v>6.643069519945001</v>
       </c>
       <c r="R6">
-        <v>10.190431855455</v>
+        <v>59.78762567950501</v>
       </c>
       <c r="S6">
-        <v>0.04429762231566598</v>
+        <v>0.251670586595393</v>
       </c>
       <c r="T6">
-        <v>0.04429762231566597</v>
+        <v>0.251670586595393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.525807</v>
+        <v>44.154177</v>
       </c>
       <c r="H7">
-        <v>22.577421</v>
+        <v>132.462531</v>
       </c>
       <c r="I7">
-        <v>0.1430474948743168</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J7">
-        <v>0.1430474948743168</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>1.006177</v>
       </c>
       <c r="O7">
-        <v>0.6903292689285724</v>
+        <v>0.6775561629592817</v>
       </c>
       <c r="P7">
-        <v>0.6903292689285724</v>
+        <v>0.6775561629592817</v>
       </c>
       <c r="Q7">
-        <v>2.524097969946333</v>
+        <v>14.808972450443</v>
       </c>
       <c r="R7">
+        <v>133.280752053987</v>
+      </c>
+      <c r="S7">
+        <v>0.5610332350562036</v>
+      </c>
+      <c r="T7">
+        <v>0.5610332350562036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.525807</v>
+      </c>
+      <c r="H8">
+        <v>22.577421</v>
+      </c>
+      <c r="I8">
+        <v>0.1411316995996059</v>
+      </c>
+      <c r="J8">
+        <v>0.1411316995996059</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.009159</v>
+      </c>
+      <c r="N8">
+        <v>0.027477</v>
+      </c>
+      <c r="O8">
+        <v>0.01850291816413234</v>
+      </c>
+      <c r="P8">
+        <v>0.01850291816413234</v>
+      </c>
+      <c r="Q8">
+        <v>0.06892886631300001</v>
+      </c>
+      <c r="R8">
+        <v>0.620359796817</v>
+      </c>
+      <c r="S8">
+        <v>0.002611348288056417</v>
+      </c>
+      <c r="T8">
+        <v>0.002611348288056416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.525807</v>
+      </c>
+      <c r="H9">
+        <v>22.577421</v>
+      </c>
+      <c r="I9">
+        <v>0.1411316995996059</v>
+      </c>
+      <c r="J9">
+        <v>0.1411316995996059</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1504516666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.451355</v>
+      </c>
+      <c r="O9">
+        <v>0.3039409188765859</v>
+      </c>
+      <c r="P9">
+        <v>0.3039409188765859</v>
+      </c>
+      <c r="Q9">
+        <v>1.132270206161667</v>
+      </c>
+      <c r="R9">
+        <v>10.190431855455</v>
+      </c>
+      <c r="S9">
+        <v>0.04289569845891851</v>
+      </c>
+      <c r="T9">
+        <v>0.0428956984589185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.525807</v>
+      </c>
+      <c r="H10">
+        <v>22.577421</v>
+      </c>
+      <c r="I10">
+        <v>0.1411316995996059</v>
+      </c>
+      <c r="J10">
+        <v>0.1411316995996059</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3353923333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.006177</v>
+      </c>
+      <c r="O10">
+        <v>0.6775561629592817</v>
+      </c>
+      <c r="P10">
+        <v>0.6775561629592817</v>
+      </c>
+      <c r="Q10">
+        <v>2.524097969946334</v>
+      </c>
+      <c r="R10">
         <v>22.716881729517</v>
       </c>
-      <c r="S7">
-        <v>0.09874987255865081</v>
-      </c>
-      <c r="T7">
-        <v>0.09874987255865081</v>
+      <c r="S10">
+        <v>0.09562465285263096</v>
+      </c>
+      <c r="T10">
+        <v>0.09562465285263096</v>
       </c>
     </row>
   </sheetData>
